--- a/DATA_RESPUESTA/Preferencial y Ejecutivo.xlsx
+++ b/DATA_RESPUESTA/Preferencial y Ejecutivo.xlsx
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="J2" sqref="J2"/>
@@ -4429,6 +4429,1982 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>SV-RJ47679</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>00088387-2</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>1416-271278-101-0</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>JUAN DAVID, REYES SALAZAR</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F78" s="0" t="inlineStr">
+        <is>
+          <t>7071-0453</t>
+        </is>
+      </c>
+      <c r="G78" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H78" s="0" t="inlineStr">
+        <is>
+          <t>292.40</t>
+        </is>
+      </c>
+      <c r="I78" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J78" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>SV-NM9278</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>00090088-6</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>0614-271260-014-0</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL VICENTE, NUÑEZ GRANADOS</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>6131-7133</t>
+        </is>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+      <c r="I79" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J79" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>SV-RM20831</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>00196268-7</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>0315-180165-001-5</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>MAURICIO ERNESTO, RAMIREZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>6261-0010</t>
+        </is>
+      </c>
+      <c r="G80" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H80" s="0" t="inlineStr">
+        <is>
+          <t>149.20</t>
+        </is>
+      </c>
+      <c r="I80" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J80" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>SV-MM47693</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>00310459-4</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>0702-240253-001-0</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL ANTONIO, MEJIA</t>
+        </is>
+      </c>
+      <c r="E81" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F81" s="0" t="inlineStr">
+        <is>
+          <t>6235-7596</t>
+        </is>
+      </c>
+      <c r="G81" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H81" s="0" t="inlineStr">
+        <is>
+          <t>189.80</t>
+        </is>
+      </c>
+      <c r="I81" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J81" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>SV-OM47682</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>00356539-2</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>1217-241278-104-0</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>MARGARITA DE LA PAZ, OLIVARES RUIZ</t>
+        </is>
+      </c>
+      <c r="E82" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F82" s="0" t="inlineStr">
+        <is>
+          <t>6660-6154</t>
+        </is>
+      </c>
+      <c r="G82" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H82" s="0" t="inlineStr">
+        <is>
+          <t>560.00</t>
+        </is>
+      </c>
+      <c r="I82" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J82" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>SV-CJ47665</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>00371900-6</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>0515-080248-001-9</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>JUAN JUVENCIO, CASTILLO MEZQUITA</t>
+        </is>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F83" s="0" t="inlineStr">
+        <is>
+          <t>7851-4479</t>
+        </is>
+      </c>
+      <c r="G83" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H83" s="0" t="inlineStr">
+        <is>
+          <t>171.60</t>
+        </is>
+      </c>
+      <c r="I83" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J83" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>SV-PR20278</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>00374800-4</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>0821-220252-001-2</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>RAUL ALBERTO, PINEDA DIAZ</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F84" s="0" t="inlineStr">
+        <is>
+          <t>6278-7729</t>
+        </is>
+      </c>
+      <c r="G84" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H84" s="0" t="inlineStr">
+        <is>
+          <t>302.80</t>
+        </is>
+      </c>
+      <c r="I84" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J84" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>SV-SR47630</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>00424078-3</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>1008-050256-101-6</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>RAUL, SANCHEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="E85" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F85" s="0" t="inlineStr">
+        <is>
+          <t>7439-8467</t>
+        </is>
+      </c>
+      <c r="G85" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H85" s="0" t="inlineStr">
+        <is>
+          <t>185.20</t>
+        </is>
+      </c>
+      <c r="I85" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J85" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>SV-PA13188</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>00466902-6</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>1011-280273-101-0</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>ANGEL VICTOR, PINO MERINO</t>
+        </is>
+      </c>
+      <c r="E86" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F86" s="0" t="inlineStr">
+        <is>
+          <t>7923-2040</t>
+        </is>
+      </c>
+      <c r="G86" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H86" s="0" t="inlineStr">
+        <is>
+          <t>256.80</t>
+        </is>
+      </c>
+      <c r="I86" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J86" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>SV-MA8266</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>00559869-2</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>0614-190367-101-1</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>ALICIA ORBELINA, MENDEZ BENITEZ</t>
+        </is>
+      </c>
+      <c r="E87" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F87" s="0" t="inlineStr">
+        <is>
+          <t>7070-5856</t>
+        </is>
+      </c>
+      <c r="G87" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H87" s="0" t="inlineStr">
+        <is>
+          <t>297.80</t>
+        </is>
+      </c>
+      <c r="I87" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J87" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>SV-QA47695</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>00619610-0</t>
+        </is>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>0614-290358-010-0</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>ANA DORA ALICIA, QUINTANILLA DE ZULETA</t>
+        </is>
+      </c>
+      <c r="E88" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F88" s="0" t="inlineStr">
+        <is>
+          <t>6271-6439</t>
+        </is>
+      </c>
+      <c r="G88" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H88" s="0" t="inlineStr">
+        <is>
+          <t>234.20</t>
+        </is>
+      </c>
+      <c r="I88" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J88" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>SV-MJ30105</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>00630581-4</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>0614-220281-103-6</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>JAIME RAUL, MARROQUIN MARROQUIN</t>
+        </is>
+      </c>
+      <c r="E89" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F89" s="0" t="inlineStr">
+        <is>
+          <t>7976-7136</t>
+        </is>
+      </c>
+      <c r="G89" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H89" s="0" t="inlineStr">
+        <is>
+          <t>260.20</t>
+        </is>
+      </c>
+      <c r="I89" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J89" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>SV-UD47691</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>00809544-9</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>1403-071155-101-1</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>DOLORES SUYAPA, UMANZOR DE RIVERA</t>
+        </is>
+      </c>
+      <c r="E90" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F90" s="0" t="inlineStr">
+        <is>
+          <t>6225-7198</t>
+        </is>
+      </c>
+      <c r="G90" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H90" s="0" t="inlineStr">
+        <is>
+          <t>368.80</t>
+        </is>
+      </c>
+      <c r="I90" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J90" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>SV-GS47519</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>00829876-2</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>1010-030362-001-1</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>SARA LORENA, GUZMAN SAMAYOA</t>
+        </is>
+      </c>
+      <c r="E91" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F91" s="0" t="inlineStr">
+        <is>
+          <t>6284-6340</t>
+        </is>
+      </c>
+      <c r="G91" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H91" s="0" t="inlineStr">
+        <is>
+          <t>384.20</t>
+        </is>
+      </c>
+      <c r="I91" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J91" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>SV-RJ47676</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>00881659-4</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>0512-030470-101-7</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>JACOBO, RAMOS PEREZ</t>
+        </is>
+      </c>
+      <c r="E92" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F92" s="0" t="inlineStr">
+        <is>
+          <t>7165-1054</t>
+        </is>
+      </c>
+      <c r="G92" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
+        <is>
+          <t>184.40</t>
+        </is>
+      </c>
+      <c r="I92" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J92" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>SV-PG47677</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>00927645-4</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>0522-200472-101-3</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>GUILLERMO, POCASANGRE HUEZO</t>
+        </is>
+      </c>
+      <c r="E93" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F93" s="0" t="inlineStr">
+        <is>
+          <t>7789-4991</t>
+        </is>
+      </c>
+      <c r="G93" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H93" s="0" t="inlineStr">
+        <is>
+          <t>272.80</t>
+        </is>
+      </c>
+      <c r="I93" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J93" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>SV-CB47683</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>01062229-4</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>1109-250583-102-4</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>BLANCA MARIBEL, CRUZ AMAYA</t>
+        </is>
+      </c>
+      <c r="E94" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F94" s="0" t="inlineStr">
+        <is>
+          <t>7886-6026</t>
+        </is>
+      </c>
+      <c r="G94" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H94" s="0" t="inlineStr">
+        <is>
+          <t>335.40</t>
+        </is>
+      </c>
+      <c r="I94" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J94" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>SV-FR47663</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>01075769-1</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>0614-240560-013-6</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>ROBERTO ENRIQUE, FONG HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="E95" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F95" s="0" t="inlineStr">
+        <is>
+          <t>6282-3380</t>
+        </is>
+      </c>
+      <c r="G95" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H95" s="0" t="inlineStr">
+        <is>
+          <t>361.80</t>
+        </is>
+      </c>
+      <c r="I95" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J95" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>SV-BJ15868</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>01167192-9</t>
+        </is>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>1217-210658-004-3</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>JOSE ATILIO, BENITEZ PARADA</t>
+        </is>
+      </c>
+      <c r="E96" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F96" s="0" t="inlineStr">
+        <is>
+          <t>6207-4477</t>
+        </is>
+      </c>
+      <c r="G96" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H96" s="0" t="inlineStr">
+        <is>
+          <t>308.60</t>
+        </is>
+      </c>
+      <c r="I96" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J96" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>SV-LC6418</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>01421695-6</t>
+        </is>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>0614-031062-003-1</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>CESAR MAURICIO, LOPEZ GUZMAN</t>
+        </is>
+      </c>
+      <c r="E97" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F97" s="0" t="inlineStr">
+        <is>
+          <t>6305-5568</t>
+        </is>
+      </c>
+      <c r="G97" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H97" s="0" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="I97" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J97" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>SV-MN1421</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>01448290-5</t>
+        </is>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>0210-010765-101-4</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>NESTOR MARIO, MARROQUIN AREVALO</t>
+        </is>
+      </c>
+      <c r="E98" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F98" s="0" t="inlineStr">
+        <is>
+          <t>7740-7501</t>
+        </is>
+      </c>
+      <c r="G98" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H98" s="0" t="inlineStr">
+        <is>
+          <t>212.00</t>
+        </is>
+      </c>
+      <c r="I98" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J98" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>SV-GC42266</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>01564617-0</t>
+        </is>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>0511-121181-102-6</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>CARLOS RICARDO, GHIRINGHELLO ROSALES</t>
+        </is>
+      </c>
+      <c r="E99" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F99" s="0" t="inlineStr">
+        <is>
+          <t>7247-1706</t>
+        </is>
+      </c>
+      <c r="G99" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H99" s="0" t="inlineStr">
+        <is>
+          <t>214.20</t>
+        </is>
+      </c>
+      <c r="I99" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J99" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>SV-CH47710</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>01695478-8</t>
+        </is>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>1324-220868-101-2</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>HECTOR MANUEL, CHACON ARGUETA</t>
+        </is>
+      </c>
+      <c r="E100" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F100" s="0" t="inlineStr">
+        <is>
+          <t>7778-1096</t>
+        </is>
+      </c>
+      <c r="G100" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H100" s="0" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="I100" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J100" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>SV-HE47712</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>01771937-7</t>
+        </is>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>0614-020980-118-1</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>ERICK STEFFAN, HERNANDEZ DURAN</t>
+        </is>
+      </c>
+      <c r="E101" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F101" s="0" t="inlineStr">
+        <is>
+          <t>7695-5228</t>
+        </is>
+      </c>
+      <c r="G101" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H101" s="0" t="inlineStr">
+        <is>
+          <t>364.60</t>
+        </is>
+      </c>
+      <c r="I101" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J101" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>SV-MG2164</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>01804572-1</t>
+        </is>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>0210-250264-002-1</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>GABRIEL ANTONIO, MAYORGA RAMIREZ</t>
+        </is>
+      </c>
+      <c r="E102" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F102" s="0" t="inlineStr">
+        <is>
+          <t>7070-5723</t>
+        </is>
+      </c>
+      <c r="G102" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H102" s="0" t="inlineStr">
+        <is>
+          <t>281.20</t>
+        </is>
+      </c>
+      <c r="I102" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J102" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>SV-GM47595</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>01890496-7</t>
+        </is>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>0502-250251-001-5</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>MARIO, GUARDADO</t>
+        </is>
+      </c>
+      <c r="E103" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F103" s="0" t="inlineStr">
+        <is>
+          <t>7928-9424</t>
+        </is>
+      </c>
+      <c r="G103" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H103" s="0" t="inlineStr">
+        <is>
+          <t>318.80</t>
+        </is>
+      </c>
+      <c r="I103" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J103" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>SV-LR47673</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>02054051-7</t>
+        </is>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>0614-190981-137-0</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>RICARDO ERNESTO, LARA CACERES</t>
+        </is>
+      </c>
+      <c r="E104" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F104" s="0" t="inlineStr">
+        <is>
+          <t>7985-7656</t>
+        </is>
+      </c>
+      <c r="G104" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H104" s="0" t="inlineStr">
+        <is>
+          <t>223.40</t>
+        </is>
+      </c>
+      <c r="I104" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J104" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>SV-MH23670</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>02313750-9</t>
+        </is>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>1114-260170-101-5</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>HECTOR ANTONIO, MARTINEZ ORTIZ</t>
+        </is>
+      </c>
+      <c r="E105" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F105" s="0" t="inlineStr">
+        <is>
+          <t>6631-1175</t>
+        </is>
+      </c>
+      <c r="G105" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H105" s="0" t="inlineStr">
+        <is>
+          <t>141.80</t>
+        </is>
+      </c>
+      <c r="I105" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J105" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>SV-DF22100</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>02377745-6</t>
+        </is>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>0614-180648-005-2</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO ENRIQUE, DIAZ RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="E106" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F106" s="0" t="inlineStr">
+        <is>
+          <t>6523-6600</t>
+        </is>
+      </c>
+      <c r="G106" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H106" s="0" t="inlineStr">
+        <is>
+          <t>210.40</t>
+        </is>
+      </c>
+      <c r="I106" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J106" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>SV-SM1054</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>02408291-9</t>
+        </is>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>0203-051068-101-4</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>MARITZA CAROLINA, SALAZAR DE SERMEÑO</t>
+        </is>
+      </c>
+      <c r="E107" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F107" s="0" t="inlineStr">
+        <is>
+          <t>6447-8435</t>
+        </is>
+      </c>
+      <c r="G107" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H107" s="0" t="inlineStr">
+        <is>
+          <t>733.60</t>
+        </is>
+      </c>
+      <c r="I107" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J107" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>SV-MJ25233</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>02435337-8</t>
+        </is>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>0614-161264-013-0</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>JORGE ALBERTO, MIRANDA QUINTANILLA</t>
+        </is>
+      </c>
+      <c r="E108" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F108" s="0" t="inlineStr">
+        <is>
+          <t>6272-9067</t>
+        </is>
+      </c>
+      <c r="G108" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H108" s="0" t="inlineStr">
+        <is>
+          <t>214.40</t>
+        </is>
+      </c>
+      <c r="I108" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J108" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>SV-ME47627</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>02454429-6</t>
+        </is>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>0607-270265-001-7</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>EVELYN DE LOS ANGELES, MARROQUIN AMAYA</t>
+        </is>
+      </c>
+      <c r="E109" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F109" s="0" t="inlineStr">
+        <is>
+          <t>7070-4632</t>
+        </is>
+      </c>
+      <c r="G109" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H109" s="0" t="inlineStr">
+        <is>
+          <t>395.80</t>
+        </is>
+      </c>
+      <c r="I109" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J109" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>SV-GE25309</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>02575654-5</t>
+        </is>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>1407-201281-101-6</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>EDWIN JOVANY, GONZALEZ</t>
+        </is>
+      </c>
+      <c r="E110" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F110" s="0" t="inlineStr">
+        <is>
+          <t>7410-0034</t>
+        </is>
+      </c>
+      <c r="G110" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H110" s="0" t="inlineStr">
+        <is>
+          <t>163.80</t>
+        </is>
+      </c>
+      <c r="I110" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J110" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>SV-CR47598</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>02593311-3</t>
+        </is>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>0614-200854-003-2</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>ROSA MARGARITA, CRUZ GUZMAN</t>
+        </is>
+      </c>
+      <c r="E111" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F111" s="0" t="inlineStr">
+        <is>
+          <t>6243-7362</t>
+        </is>
+      </c>
+      <c r="G111" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H111" s="0" t="inlineStr">
+        <is>
+          <t>363.40</t>
+        </is>
+      </c>
+      <c r="I111" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J111" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>SV-PJ19861</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>02726756-8</t>
+        </is>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>0210-170964-007-2</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>JOSE MAURICIO, PINEDA MULATO</t>
+        </is>
+      </c>
+      <c r="E112" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F112" s="0" t="inlineStr">
+        <is>
+          <t>6232-1846</t>
+        </is>
+      </c>
+      <c r="G112" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H112" s="0" t="inlineStr">
+        <is>
+          <t>369.80</t>
+        </is>
+      </c>
+      <c r="I112" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J112" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>SV-OL19455</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>02921225-0</t>
+        </is>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>0103-240966-101-0</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>LUIS WALTER, ORTIZ MEDINA</t>
+        </is>
+      </c>
+      <c r="E113" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F113" s="0" t="inlineStr">
+        <is>
+          <t>6294-7980</t>
+        </is>
+      </c>
+      <c r="G113" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H113" s="0" t="inlineStr">
+        <is>
+          <t>251.80</t>
+        </is>
+      </c>
+      <c r="I113" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J113" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>SV-RR5909</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>03365212-9</t>
+        </is>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>0610-150982-107-3</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>ROBERTO, RAMIREZ DEODANES</t>
+        </is>
+      </c>
+      <c r="E114" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F114" s="0" t="inlineStr">
+        <is>
+          <t>7536-9733</t>
+        </is>
+      </c>
+      <c r="G114" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H114" s="0" t="inlineStr">
+        <is>
+          <t>143.60</t>
+        </is>
+      </c>
+      <c r="I114" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE PREFERENCIAL</t>
+        </is>
+      </c>
+      <c r="J114" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>SV-MS47711</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>04326581-9</t>
+        </is>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>1123-011290-101-6</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>SAMUEL GERARDO, MEDRANO RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="E115" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F115" s="0" t="inlineStr">
+        <is>
+          <t>7869-2068</t>
+        </is>
+      </c>
+      <c r="G115" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H115" s="0" t="inlineStr">
+        <is>
+          <t>219.40</t>
+        </is>
+      </c>
+      <c r="I115" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="J115" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
